--- a/biology/Médecine/Ballon_gastrique/Ballon_gastrique.xlsx
+++ b/biology/Médecine/Ballon_gastrique/Ballon_gastrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ballon gastrique  est un traitement non chirurgical de l'obésité qui permet une perte de poids par la satiété que produit l'occupation d'une part significative de l'estomac par un ballon.
 L'alimentation peut ainsi être rééduquée, réduite, rééquilibrée et la surcharge pondérale diminuée voire supprimée.
@@ -512,9 +524,11 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux États-Unis, le ballon intragastrique constitue, en 2018, seulement des procédures à visée bariatrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, le ballon intragastrique constitue, en 2018, seulement des procédures à visée bariatrique.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Personnes concernées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ballon gastrique est envisagé chez les personnes obèses ayant un IMC entre 30 et 40 (sauf pour le ballon gastrique ORBERA qui a obtenu l'indication de pose à partir d'un IMC de 27), lorsqu'elles présentent des risques de santé liés à leur obésité, ceci pour une durée limitée à six mois.
 </t>
@@ -574,7 +590,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'utilisation d'un ballon gastrique n'est pas indiquée pour un amaigrissement à seule fin esthétique, mais pour le traitement de l'obésité.
 Les conditions physiologiques ou pathologiques qui sont contre-indiquées pour la pose d'un ballon gastrique sont :
@@ -611,11 +629,13 @@
           <t>Types de ballon</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il existe deux types principaux qui se distingue par leur contenu (air ou liquide)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il existe deux types principaux qui se distingue par leur contenu (air ou liquide) :
 Le ballon intra-gastrique Héliosphere, fabriqué à Vienne en France. D'un poids de 30 g, il est constitué d'une double couche en polymère recouverte d'une enveloppe protectrice en silicone. Le ballon sans air est introduit dans l'œsophage jusqu'à l'estomac à l'aide d'un endoscope. Il est gonflé par la suite pour occuper un volume final de l'ordre de 700 ml et flotte librement dans l'estomac.
-Le ballon gastrique Orbera fabriqué par Allergan. Il est constitué d'un ballon en silicone qui se remplit de sérum physiologique (entre 600 et 650 ml[3]).</t>
+Le ballon gastrique Orbera fabriqué par Allergan. Il est constitué d'un ballon en silicone qui se remplit de sérum physiologique (entre 600 et 650 ml).</t>
         </is>
       </c>
     </row>
@@ -643,7 +663,9 @@
           <t>Le programme d'inclusion dans le protocole</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les patients doivent passer dans les mains de différents médecins qui s'assureront que le patient fait partie des bonnes indications de la pose d'un ballon gastrique, avec un maximum de chance de réussite à l'issue des 6 mois, mais également au-delà.
 Il s'agit :
@@ -680,7 +702,9 @@
           <t>Pose du ballon et suivi post-opératoire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La première étape par laquelle le patient passe est la phase préparatoire. Le patient doit tout d’abord effectuer plusieurs bilans et rencontrer différents professionnels de la santé. Le but est de pouvoir vérifier s’il n’y a pas de contre-indication à la procédure. 
 Lors de cette phase, l’IMC est calculé et un bilan de santé général est émis. 
@@ -720,7 +744,9 @@
           <t>Suivi pendant le traitement par le Ballon</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la durée où le ballon a été installé dans l'estomac, un suivi régulier doit être effectué par une équipe médicale pluridisciplinaire, constituée d'un gastro-entérologue, d'un nutritionniste et d'un psychologue.
 Pendant les 2 à 3 jours inconfortables après la pose, toute l'équipe se doit d'être joignable par le patient pour pallier toute difficulté.
@@ -755,7 +781,9 @@
           <t>Dépose du ballon</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Au bout de 6 mois maximum, le ballon est retiré par le gastro-entérologue, dans les mêmes conditions d'hospitalisation que la pose et dans les mêmes conditions de sécurité.
 La dépose n'entraîne pas de suite digestives particulières dans les jours qui suivent.
@@ -788,7 +816,9 @@
           <t>Après les 6 mois et la dépose du ballon gastrique</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le suivi nutritionnel, la poursuite de la rééducation alimentaire, de la modification des habitudes devront se poursuivre à un rythme convenu avec le nutritionniste et en fonction de chaque personne.
 Ce soutien a posteriori permet de consolider les résultats, et même de permettre la poursuite de la perte de poids au-delà de ces 6 mois.
@@ -820,10 +850,12 @@
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ballon Orbera permet une perte de poids de plus de 10 kg par rapport à un groupe témoin, avec quelques effets secondaires de type digestifs dans les premières semaines[4]. Dans une autre étude, la perte de poids est moindre[5].
-Le ballon à air obtient des résultats comparables[6].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ballon Orbera permet une perte de poids de plus de 10 kg par rapport à un groupe témoin, avec quelques effets secondaires de type digestifs dans les premières semaines. Dans une autre étude, la perte de poids est moindre.
+Le ballon à air obtient des résultats comparables.
 </t>
         </is>
       </c>
@@ -852,11 +884,13 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils sont courants, peu graves et très souvent résolutifs au bout de quelques semaines sans que cela nécessite une intervention. La technique comporte cependant plus de complication qu'une chirurgie bariatrique[7].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont courants, peu graves et très souvent résolutifs au bout de quelques semaines sans que cela nécessite une intervention. La technique comporte cependant plus de complication qu'une chirurgie bariatrique.
 Ils peuvent être plus importants, à type de douleurs, ballonnements, troubles digestifs, par surgonflage du ballon (tant à l'air qu'aux liquides) et nécessitant alors le retrait de ce dernier. 
-Le ballon à liquide peut comprimer, par son poids, certaines structures digestives, pouvant être responsable d'une pancréatite aiguë. Cette complication survient dans les premiers jours de la mise en place[8] et nécessite le retrait immédiat du ballon.
+Le ballon à liquide peut comprimer, par son poids, certaines structures digestives, pouvant être responsable d'une pancréatite aiguë. Cette complication survient dans les premiers jours de la mise en place et nécessite le retrait immédiat du ballon.
 </t>
         </is>
       </c>
